--- a/work.xlsx
+++ b/work.xlsx
@@ -759,7 +759,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -775,9 +775,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1129,7 +1126,7 @@
   <dimension ref="A1:D167"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="A152" sqref="A152:D167"/>
+      <selection activeCell="A148" sqref="A148:A167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -2936,7 +2933,7 @@
       <c r="D151" s="4"/>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="7">
+      <c r="A152" s="6">
         <v>45307</v>
       </c>
       <c r="B152" s="1" t="s">
@@ -2950,7 +2947,7 @@
       </c>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="7">
+      <c r="A153" s="6">
         <v>45308</v>
       </c>
       <c r="B153" s="1" t="s">
@@ -2958,7 +2955,7 @@
       </c>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="7">
+      <c r="A154" s="6">
         <v>45309</v>
       </c>
       <c r="B154" s="1" t="s">
@@ -2972,7 +2969,7 @@
       </c>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="7">
+      <c r="A155" s="6">
         <v>45310</v>
       </c>
       <c r="B155" s="1" t="s">
@@ -2986,7 +2983,7 @@
       </c>
     </row>
     <row r="156" spans="1:2">
-      <c r="A156" s="7">
+      <c r="A156" s="6">
         <v>45311</v>
       </c>
       <c r="B156" s="1" t="s">
@@ -2994,7 +2991,7 @@
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="7">
+      <c r="A157" s="6">
         <v>45312</v>
       </c>
       <c r="B157" s="1" t="s">
@@ -3005,7 +3002,7 @@
       </c>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" s="7">
+      <c r="A158" s="6">
         <v>45313</v>
       </c>
       <c r="B158" s="1" t="s">
@@ -3019,7 +3016,7 @@
       </c>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="7">
+      <c r="A159" s="6">
         <v>45314</v>
       </c>
       <c r="B159" s="1" t="s">
@@ -3033,7 +3030,7 @@
       </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="7">
+      <c r="A160" s="6">
         <v>45315</v>
       </c>
       <c r="B160" s="1" t="s">
@@ -3041,7 +3038,7 @@
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="7">
+      <c r="A161" s="6">
         <v>45316</v>
       </c>
       <c r="B161" s="1" t="s">
@@ -3052,7 +3049,7 @@
       </c>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="7">
+      <c r="A162" s="6">
         <v>45317</v>
       </c>
       <c r="B162" s="1" t="s">
@@ -3066,7 +3063,7 @@
       </c>
     </row>
     <row r="163" spans="1:2">
-      <c r="A163" s="7">
+      <c r="A163" s="6">
         <v>45318</v>
       </c>
       <c r="B163" s="1" t="s">
@@ -3074,7 +3071,7 @@
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="7">
+      <c r="A164" s="6">
         <v>45319</v>
       </c>
       <c r="B164" s="1" t="s">
@@ -3085,7 +3082,7 @@
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="7">
+      <c r="A165" s="6">
         <v>45320</v>
       </c>
       <c r="B165" s="1" t="s">
@@ -3096,7 +3093,7 @@
       </c>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="7">
+      <c r="A166" s="6">
         <v>45321</v>
       </c>
       <c r="B166" s="1" t="s">
@@ -3110,7 +3107,7 @@
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="7">
+      <c r="A167" s="6">
         <v>45322</v>
       </c>
       <c r="B167" s="1" t="s">

--- a/work.xlsx
+++ b/work.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="44">
   <si>
     <t>日期</t>
   </si>
@@ -144,6 +144,21 @@
   </si>
   <si>
     <t>第一季度预调休</t>
+  </si>
+  <si>
+    <t>G新通大道</t>
+  </si>
+  <si>
+    <t>P7（上）+P6</t>
+  </si>
+  <si>
+    <t>备员</t>
+  </si>
+  <si>
+    <t>2.14-2.16婚假</t>
+  </si>
+  <si>
+    <t>跟新川路F1+评估</t>
   </si>
 </sst>
 </file>
@@ -1123,10 +1138,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D167"/>
+  <dimension ref="A1:D186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148:A167"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="A160" sqref="A160:A186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -3117,6 +3132,227 @@
         <v>24</v>
       </c>
     </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="6">
+        <v>45323</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D168" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="6">
+        <v>45324</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D169" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="6">
+        <v>45325</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="6">
+        <v>45326</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D171" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="6">
+        <v>45327</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D172" s="1">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="6">
+        <v>45328</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D173" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="6">
+        <v>45329</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D174" s="1">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="6">
+        <v>45330</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D175" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="6">
+        <v>45331</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="6">
+        <v>45332</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="6">
+        <v>45333</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="6">
+        <v>45334</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="6">
+        <v>45335</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="6">
+        <v>45336</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="6">
+        <v>45337</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="6">
+        <v>45338</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D183" s="1">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="6">
+        <v>45339</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D184" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="6">
+        <v>45340</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="6">
+        <v>45341</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/work.xlsx
+++ b/work.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="45">
   <si>
     <t>日期</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>跟新川路F1+评估</t>
+  </si>
+  <si>
+    <t>G比武</t>
   </si>
 </sst>
 </file>
@@ -1138,10 +1141,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D186"/>
+  <dimension ref="A1:D196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="A160" sqref="A160:A186"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="A175" sqref="A175:A196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -3353,6 +3356,134 @@
         <v>38</v>
       </c>
     </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="6">
+        <v>45342</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D187" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="6">
+        <v>45343</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D188" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="6">
+        <v>45344</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D189" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="6">
+        <v>45345</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D190" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="6">
+        <v>45346</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="6">
+        <v>45347</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="6">
+        <v>45348</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D193" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="6">
+        <v>45349</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D194" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="6">
+        <v>45350</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D195" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="6">
+        <v>45351</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D196" s="1">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/work.xlsx
+++ b/work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6880"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="49">
   <si>
     <t>日期</t>
   </si>
@@ -162,6 +162,18 @@
   </si>
   <si>
     <t>G比武</t>
+  </si>
+  <si>
+    <t>跟中和B1</t>
+  </si>
+  <si>
+    <t>跟中和B2</t>
+  </si>
+  <si>
+    <t>跟中和B2+评估</t>
+  </si>
+  <si>
+    <t>中和B1</t>
   </si>
 </sst>
 </file>
@@ -1141,17 +1153,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D196"/>
+  <dimension ref="A1:D213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="A175" sqref="A175:A196"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="F200" sqref="F200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.3636363636364" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.3666666666667" style="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3484,6 +3496,205 @@
         <v>8</v>
       </c>
     </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="6">
+        <v>45396</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="6">
+        <v>45397</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D198" s="1">
+        <v>10.33</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="6">
+        <v>45398</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D199" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="6">
+        <v>45399</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="6">
+        <v>45400</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="6">
+        <v>45401</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D202" s="1">
+        <v>10.33</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="6">
+        <v>45402</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D203" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="6">
+        <v>45403</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="6">
+        <v>45404</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D205" s="1">
+        <v>10.33</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="6">
+        <v>45405</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D206" s="1">
+        <v>10.33</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="6">
+        <v>45406</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="6">
+        <v>45407</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="6">
+        <v>45408</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="6">
+        <v>45409</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D210" s="1">
+        <v>10.33</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="6">
+        <v>45410</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D211" s="1">
+        <v>10.33</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="6">
+        <v>45411</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="6">
+        <v>45412</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D213" s="1">
+        <v>10.33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/work.xlsx
+++ b/work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="19200" windowHeight="6880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="50">
   <si>
     <t>日期</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>中和B1</t>
+  </si>
+  <si>
+    <t>P4</t>
   </si>
 </sst>
 </file>
@@ -1153,17 +1156,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D213"/>
+  <dimension ref="A1:D228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="F200" sqref="F200"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="C231" sqref="C231"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.3666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.3636363636364" style="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3695,6 +3698,189 @@
         <v>10.33</v>
       </c>
     </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="6">
+        <v>45778</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D214" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="6">
+        <v>45779</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D215" s="1">
+        <v>10.33</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="6">
+        <v>45780</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="6">
+        <v>45781</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="6">
+        <v>45782</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="6">
+        <v>45783</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D219" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="6">
+        <v>45784</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D220" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="6">
+        <v>45785</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D221" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="6">
+        <v>45786</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D222" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="6">
+        <v>45787</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D223" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="6">
+        <v>45788</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="6">
+        <v>45789</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="6">
+        <v>45790</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D226" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="6">
+        <v>45791</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D227" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="6">
+        <v>45792</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D228" s="1">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
